--- a/opm_hero_property/heroes/113.xlsx
+++ b/opm_hero_property/heroes/113.xlsx
@@ -6543,7 +6543,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS25"/>
+  <dimension ref="A1:AW25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6739,40 +6739,60 @@
       </c>
       <c r="AL1" t="inlineStr">
         <is>
+          <t>job_contact</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>attr_addition</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>pvp_addition</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
           <t>基础战力</t>
         </is>
       </c>
-      <c r="AM1" t="inlineStr">
+      <c r="AP1" t="inlineStr">
         <is>
           <t>装备战力</t>
         </is>
       </c>
-      <c r="AN1" t="inlineStr">
+      <c r="AQ1" t="inlineStr">
         <is>
           <t>天赋战力</t>
         </is>
       </c>
-      <c r="AO1" t="inlineStr">
+      <c r="AR1" t="inlineStr">
         <is>
           <t>研究所战力</t>
         </is>
       </c>
-      <c r="AP1" t="inlineStr">
+      <c r="AS1" t="inlineStr">
         <is>
           <t>职阶战力</t>
         </is>
       </c>
-      <c r="AQ1" t="inlineStr">
+      <c r="AT1" t="inlineStr">
         <is>
           <t>机械核心战力</t>
         </is>
       </c>
-      <c r="AR1" t="inlineStr">
+      <c r="AU1" t="inlineStr">
         <is>
           <t>限制器战力</t>
         </is>
       </c>
-      <c r="AS1" t="inlineStr">
+      <c r="AV1" t="inlineStr">
+        <is>
+          <t>收集战力</t>
+        </is>
+      </c>
+      <c r="AW1" t="inlineStr">
         <is>
           <t>总战力</t>
         </is>
@@ -6812,7 +6832,7 @@
         <v>10</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L2" t="n">
         <v>113</v>
@@ -6839,13 +6859,13 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>5717685.263314799</v>
+        <v>6654199.8776188</v>
       </c>
       <c r="U2" t="n">
-        <v>917373.9839504</v>
+        <v>1060127.7062544</v>
       </c>
       <c r="V2" t="n">
-        <v>676320.8682084801</v>
+        <v>782676.8703844801</v>
       </c>
       <c r="W2" t="n">
         <v>4740</v>
@@ -6884,7 +6904,7 @@
         <v>10</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
@@ -6897,28 +6917,36 @@
         </is>
       </c>
       <c r="AL2" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="n">
         <v>10555265.13392</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AP2" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AQ2" t="n">
         <v>2218897.66742976</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AR2" t="n">
         <v>481003.7</v>
       </c>
-      <c r="AP2" t="n">
-        <v>2007622</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR2" t="n">
+      <c r="AS2" t="n">
+        <v>2851977.2107136</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>1688707.1</v>
+      </c>
+      <c r="AU2" t="n">
         <v>576011.54342156</v>
       </c>
-      <c r="AS2" t="n">
-        <v>15953107.24477132</v>
+      <c r="AV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>18486169.55548492</v>
       </c>
     </row>
     <row r="3">
@@ -6955,7 +6983,7 @@
         <v>10</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L3" t="n">
         <v>113</v>
@@ -6982,13 +7010,13 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>715584.2407245999</v>
+        <v>821050.9649325999</v>
       </c>
       <c r="U3" t="n">
-        <v>131593.3274448</v>
+        <v>147669.2254928</v>
       </c>
       <c r="V3" t="n">
-        <v>91186.55938544001</v>
+        <v>103413.27791344</v>
       </c>
       <c r="W3" t="n">
         <v>4740</v>
@@ -7027,7 +7055,7 @@
         <v>10</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
@@ -7040,28 +7068,36 @@
         </is>
       </c>
       <c r="AL3" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="n">
         <v>1195418.77844</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AP3" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AQ3" t="n">
         <v>252163.65010152</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AR3" t="n">
         <v>68760.45</v>
       </c>
-      <c r="AP3" t="n">
-        <v>466485.6</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR3" t="n">
+      <c r="AS3" t="n">
+        <v>562053.1022752</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>191126.55</v>
+      </c>
+      <c r="AU3" t="n">
         <v>67461.73801848</v>
       </c>
-      <c r="AS3" t="n">
-        <v>2164597.41656</v>
+      <c r="AV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>2451291.4688352</v>
       </c>
     </row>
     <row r="4">
@@ -7098,7 +7134,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
         <v>113</v>
@@ -7125,13 +7161,13 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>7609.056</v>
+        <v>8102.056</v>
       </c>
       <c r="U4" t="n">
-        <v>1522.8269</v>
+        <v>1597.8269</v>
       </c>
       <c r="V4" t="n">
-        <v>510.2533</v>
+        <v>566.2533</v>
       </c>
       <c r="W4" t="n">
         <v>600</v>
@@ -7170,25 +7206,21 @@
         <v>0</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
       <c r="AL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="n">
         <v>18327.668085</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AP4" t="n">
         <v>4456.85</v>
       </c>
-      <c r="AN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ4" t="n">
         <v>0</v>
       </c>
@@ -7196,7 +7228,19 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>22784.518085</v>
+        <v>0</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>1332.5</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>24117.018085</v>
       </c>
     </row>
     <row r="5">
@@ -7233,7 +7277,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L5" t="n">
         <v>113</v>
@@ -7260,13 +7304,13 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>20425.8783</v>
+        <v>34922.8783</v>
       </c>
       <c r="U5" t="n">
-        <v>3782.2766</v>
+        <v>5991.2766</v>
       </c>
       <c r="V5" t="n">
-        <v>1521.933</v>
+        <v>3167.933</v>
       </c>
       <c r="W5" t="n">
         <v>777</v>
@@ -7305,25 +7349,21 @@
         <v>0</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
       <c r="AL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="n">
         <v>46215.95159</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AP5" t="n">
         <v>11828.8</v>
       </c>
-      <c r="AN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ5" t="n">
         <v>0</v>
       </c>
@@ -7331,7 +7371,19 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>58044.75159000001</v>
+        <v>0</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>39203.6</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>97248.35159000002</v>
       </c>
     </row>
     <row r="6">
@@ -7368,7 +7420,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L6" t="n">
         <v>113</v>
@@ -7395,13 +7447,13 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>57833.2552</v>
+        <v>119986.2552</v>
       </c>
       <c r="U6" t="n">
-        <v>9738.025</v>
+        <v>19212.025</v>
       </c>
       <c r="V6" t="n">
-        <v>4898.448</v>
+        <v>11956.448</v>
       </c>
       <c r="W6" t="n">
         <v>1300</v>
@@ -7440,33 +7492,41 @@
         <v>0</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="inlineStr"/>
+      <c r="AO6" t="n">
         <v>109877.6037</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AP6" t="n">
         <v>32682</v>
       </c>
-      <c r="AN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO6" t="n">
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AS6" t="n">
         <v>9406.6</v>
       </c>
-      <c r="AQ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>158126.7037</v>
+      <c r="AT6" t="n">
+        <v>168107.1</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>326233.8037</v>
       </c>
     </row>
     <row r="7">
@@ -7503,7 +7563,7 @@
         <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L7" t="n">
         <v>113</v>
@@ -7530,13 +7590,13 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>65645.4842208</v>
+        <v>127798.4842208</v>
       </c>
       <c r="U7" t="n">
-        <v>10930.9211</v>
+        <v>20404.9211</v>
       </c>
       <c r="V7" t="n">
-        <v>5779.9281472</v>
+        <v>12837.9281472</v>
       </c>
       <c r="W7" t="n">
         <v>1380</v>
@@ -7575,7 +7635,7 @@
         <v>1</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
@@ -7588,28 +7648,36 @@
         </is>
       </c>
       <c r="AL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM7" t="inlineStr"/>
+      <c r="AN7" t="inlineStr"/>
+      <c r="AO7" t="n">
         <v>109877.6037</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AP7" t="n">
         <v>32682</v>
       </c>
-      <c r="AN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO7" t="n">
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="AS7" t="n">
         <v>9589.6</v>
       </c>
-      <c r="AQ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR7" t="n">
+      <c r="AT7" t="n">
+        <v>168107.1</v>
+      </c>
+      <c r="AU7" t="n">
         <v>21111.7229572</v>
       </c>
-      <c r="AS7" t="n">
-        <v>179421.4266572</v>
+      <c r="AV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>347528.5266572</v>
       </c>
     </row>
     <row r="8">
@@ -7646,7 +7714,7 @@
         <v>2</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L8" t="n">
         <v>113</v>
@@ -7673,13 +7741,13 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>73704.0567728</v>
+        <v>135857.0567728</v>
       </c>
       <c r="U8" t="n">
-        <v>12180.6094</v>
+        <v>21654.6094</v>
       </c>
       <c r="V8" t="n">
-        <v>6683.492627200001</v>
+        <v>13741.4926272</v>
       </c>
       <c r="W8" t="n">
         <v>1380</v>
@@ -7718,7 +7786,7 @@
         <v>2</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
@@ -7731,28 +7799,36 @@
         </is>
       </c>
       <c r="AL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr"/>
+      <c r="AO8" t="n">
         <v>109877.6037</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AP8" t="n">
         <v>32682</v>
       </c>
-      <c r="AN8" t="n">
+      <c r="AQ8" t="n">
         <v>750.5571672000001</v>
       </c>
-      <c r="AO8" t="n">
+      <c r="AR8" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP8" t="n">
+      <c r="AS8" t="n">
         <v>9589.6</v>
       </c>
-      <c r="AQ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR8" t="n">
+      <c r="AT8" t="n">
+        <v>168107.1</v>
+      </c>
+      <c r="AU8" t="n">
         <v>42238.083372</v>
       </c>
-      <c r="AS8" t="n">
-        <v>201298.3442392</v>
+      <c r="AV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>369405.4442392</v>
       </c>
     </row>
     <row r="9">
@@ -7789,7 +7865,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L9" t="n">
         <v>113</v>
@@ -7816,31 +7892,31 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>247356.0422</v>
+        <v>431666.932622</v>
       </c>
       <c r="U9" t="n">
-        <v>38916.392</v>
+        <v>66350.56591999999</v>
       </c>
       <c r="V9" t="n">
-        <v>23284.8087</v>
+        <v>44059.166787</v>
       </c>
       <c r="W9" t="n">
-        <v>3620</v>
+        <v>3630</v>
       </c>
       <c r="X9" t="n">
-        <v>1440</v>
+        <v>1450</v>
       </c>
       <c r="Y9" t="n">
         <v>15000</v>
       </c>
       <c r="Z9" t="n">
-        <v>1440</v>
+        <v>1450</v>
       </c>
       <c r="AA9" t="n">
-        <v>2340</v>
+        <v>2350</v>
       </c>
       <c r="AB9" t="n">
-        <v>720</v>
+        <v>760</v>
       </c>
       <c r="AC9" t="n">
         <v>0</v>
@@ -7861,33 +7937,41 @@
         <v>0</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ9" t="inlineStr"/>
       <c r="AK9" t="inlineStr"/>
       <c r="AL9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr"/>
+      <c r="AO9" t="n">
         <v>494029.947025</v>
       </c>
-      <c r="AM9" t="n">
+      <c r="AP9" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO9" t="n">
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP9" t="n">
-        <v>39130.6</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>0</v>
-      </c>
       <c r="AS9" t="n">
-        <v>662588.797025</v>
+        <v>44062.64947025001</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>393899.6</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>94347.59999999995</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>1155768.04649525</v>
       </c>
     </row>
     <row r="10">
@@ -7924,7 +8008,7 @@
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L10" t="n">
         <v>113</v>
@@ -7951,31 +8035,31 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>256889.932622</v>
+        <v>498739.397858792</v>
       </c>
       <c r="U10" t="n">
-        <v>40430.800704</v>
+        <v>77029.68171046399</v>
       </c>
       <c r="V10" t="n">
-        <v>24331.36320613</v>
+        <v>51414.82427640634</v>
       </c>
       <c r="W10" t="n">
-        <v>3620</v>
+        <v>3630</v>
       </c>
       <c r="X10" t="n">
-        <v>1440</v>
+        <v>1450</v>
       </c>
       <c r="Y10" t="n">
         <v>15000</v>
       </c>
       <c r="Z10" t="n">
-        <v>1440</v>
+        <v>1450</v>
       </c>
       <c r="AA10" t="n">
-        <v>2340</v>
+        <v>2350</v>
       </c>
       <c r="AB10" t="n">
-        <v>720</v>
+        <v>760</v>
       </c>
       <c r="AC10" t="n">
         <v>0</v>
@@ -7996,7 +8080,7 @@
         <v>1</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
@@ -8009,28 +8093,40 @@
         </is>
       </c>
       <c r="AL10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO10" t="n">
         <v>494029.947025</v>
       </c>
-      <c r="AM10" t="n">
+      <c r="AP10" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN10" t="n">
+      <c r="AQ10" t="n">
         <v>3361.04969175</v>
       </c>
-      <c r="AO10" t="n">
+      <c r="AR10" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP10" t="n">
-        <v>39130.6</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR10" t="n">
+      <c r="AS10" t="n">
+        <v>44062.64947025001</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>393899.6</v>
+      </c>
+      <c r="AU10" t="n">
         <v>22639.9491980975</v>
       </c>
-      <c r="AS10" t="n">
-        <v>688589.7959148476</v>
+      <c r="AV10" t="n">
+        <v>251399.9958652325</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>1338821.44125033</v>
       </c>
     </row>
     <row r="11">
@@ -8067,7 +8163,7 @@
         <v>5</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L11" t="n">
         <v>113</v>
@@ -8094,31 +8190,31 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>301815.6998292</v>
+        <v>608648.5488757215</v>
       </c>
       <c r="U11" t="n">
-        <v>47890.070336</v>
+        <v>93468.17304921601</v>
       </c>
       <c r="V11" t="n">
-        <v>29176.08466733</v>
+        <v>63472.75072390794</v>
       </c>
       <c r="W11" t="n">
-        <v>3620</v>
+        <v>3630</v>
       </c>
       <c r="X11" t="n">
-        <v>1440</v>
+        <v>1450</v>
       </c>
       <c r="Y11" t="n">
         <v>15000</v>
       </c>
       <c r="Z11" t="n">
-        <v>1440</v>
+        <v>1450</v>
       </c>
       <c r="AA11" t="n">
-        <v>2340</v>
+        <v>2350</v>
       </c>
       <c r="AB11" t="n">
-        <v>970</v>
+        <v>1010</v>
       </c>
       <c r="AC11" t="n">
         <v>0</v>
@@ -8139,7 +8235,7 @@
         <v>5</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
@@ -8152,28 +8248,40 @@
         </is>
       </c>
       <c r="AL11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO11" t="n">
         <v>494029.947025</v>
       </c>
-      <c r="AM11" t="n">
+      <c r="AP11" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN11" t="n">
+      <c r="AQ11" t="n">
         <v>37409.04660925001</v>
       </c>
-      <c r="AO11" t="n">
+      <c r="AR11" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP11" t="n">
-        <v>39130.6</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR11" t="n">
+      <c r="AS11" t="n">
+        <v>44062.64947025001</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>393899.6</v>
+      </c>
+      <c r="AU11" t="n">
         <v>113281.3283504975</v>
       </c>
-      <c r="AS11" t="n">
-        <v>813279.1719847475</v>
+      <c r="AV11" t="n">
+        <v>419815.9381227852</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>1631926.759577783</v>
       </c>
     </row>
     <row r="12">
@@ -8210,7 +8318,7 @@
         <v>5</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L12" t="n">
         <v>113</v>
@@ -8237,31 +8345,31 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>313131.0423612</v>
+        <v>702629.6693716471</v>
       </c>
       <c r="U12" t="n">
-        <v>50219.461696</v>
+        <v>105274.937963936</v>
       </c>
       <c r="V12" t="n">
-        <v>30258.23318933</v>
+        <v>75216.34410993586</v>
       </c>
       <c r="W12" t="n">
-        <v>3620</v>
+        <v>3640</v>
       </c>
       <c r="X12" t="n">
-        <v>1440</v>
+        <v>1460</v>
       </c>
       <c r="Y12" t="n">
         <v>15000</v>
       </c>
       <c r="Z12" t="n">
-        <v>1440</v>
+        <v>1460</v>
       </c>
       <c r="AA12" t="n">
-        <v>2340</v>
+        <v>2360</v>
       </c>
       <c r="AB12" t="n">
-        <v>1220</v>
+        <v>1300</v>
       </c>
       <c r="AC12" t="n">
         <v>0</v>
@@ -8282,7 +8390,7 @@
         <v>5</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
@@ -8295,28 +8403,40 @@
         </is>
       </c>
       <c r="AL12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM12" t="inlineStr"/>
+      <c r="AN12" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO12" t="n">
         <v>494029.947025</v>
       </c>
-      <c r="AM12" t="n">
+      <c r="AP12" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN12" t="n">
+      <c r="AQ12" t="n">
         <v>71457.04352675</v>
       </c>
-      <c r="AO12" t="n">
+      <c r="AR12" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP12" t="n">
-        <v>39130.6</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR12" t="n">
+      <c r="AS12" t="n">
+        <v>44062.64947025001</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>393899.6</v>
+      </c>
+      <c r="AU12" t="n">
         <v>113281.3283504975</v>
       </c>
-      <c r="AS12" t="n">
-        <v>847327.1689022474</v>
+      <c r="AV12" t="n">
+        <v>629298.901582439</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>1875457.719954937</v>
       </c>
     </row>
     <row r="13">
@@ -8353,7 +8473,7 @@
         <v>10</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L13" t="n">
         <v>113</v>
@@ -8380,31 +8500,31 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>365516.2205262</v>
+        <v>852186.9522781122</v>
       </c>
       <c r="U13" t="n">
-        <v>58814.61393599999</v>
+        <v>126898.852400976</v>
       </c>
       <c r="V13" t="n">
-        <v>35953.91884183</v>
+        <v>92004.72055984086</v>
       </c>
       <c r="W13" t="n">
-        <v>3620</v>
+        <v>3670</v>
       </c>
       <c r="X13" t="n">
-        <v>1440</v>
+        <v>1490</v>
       </c>
       <c r="Y13" t="n">
         <v>15000</v>
       </c>
       <c r="Z13" t="n">
-        <v>1440</v>
+        <v>1490</v>
       </c>
       <c r="AA13" t="n">
-        <v>2340</v>
+        <v>2390</v>
       </c>
       <c r="AB13" t="n">
-        <v>1470</v>
+        <v>1670</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
@@ -8425,7 +8545,7 @@
         <v>10</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
@@ -8438,28 +8558,40 @@
         </is>
       </c>
       <c r="AL13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM13" t="inlineStr"/>
+      <c r="AN13" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO13" t="n">
         <v>494029.947025</v>
       </c>
-      <c r="AM13" t="n">
+      <c r="AP13" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN13" t="n">
+      <c r="AQ13" t="n">
         <v>105505.04044425</v>
       </c>
-      <c r="AO13" t="n">
+      <c r="AR13" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP13" t="n">
-        <v>39130.6</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR13" t="n">
+      <c r="AS13" t="n">
+        <v>44062.64947025001</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>393899.6</v>
+      </c>
+      <c r="AU13" t="n">
         <v>224112.7525558725</v>
       </c>
-      <c r="AS13" t="n">
-        <v>992206.5900251225</v>
+      <c r="AV13" t="n">
+        <v>880512.4375685588</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>2271550.677063932</v>
       </c>
     </row>
     <row r="14">
@@ -8496,7 +8628,7 @@
         <v>5</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L14" t="n">
         <v>113</v>
@@ -8523,31 +8655,31 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>324446.3848932</v>
+        <v>942794.7125303296</v>
       </c>
       <c r="U14" t="n">
-        <v>52548.853056</v>
+        <v>135339.035623424</v>
       </c>
       <c r="V14" t="n">
-        <v>31340.38171133</v>
+        <v>97749.74955348992</v>
       </c>
       <c r="W14" t="n">
-        <v>3540</v>
+        <v>3590</v>
       </c>
       <c r="X14" t="n">
-        <v>1440</v>
+        <v>1490</v>
       </c>
       <c r="Y14" t="n">
         <v>15000</v>
       </c>
       <c r="Z14" t="n">
-        <v>1440</v>
+        <v>1490</v>
       </c>
       <c r="AA14" t="n">
-        <v>2280</v>
+        <v>2330</v>
       </c>
       <c r="AB14" t="n">
-        <v>1470</v>
+        <v>1670</v>
       </c>
       <c r="AC14" t="n">
         <v>0</v>
@@ -8568,7 +8700,7 @@
         <v>5</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
@@ -8581,28 +8713,40 @@
         </is>
       </c>
       <c r="AL14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM14" t="inlineStr"/>
+      <c r="AN14" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO14" t="n">
         <v>494029.947025</v>
       </c>
-      <c r="AM14" t="n">
+      <c r="AP14" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN14" t="n">
+      <c r="AQ14" t="n">
         <v>105505.04044425</v>
       </c>
-      <c r="AO14" t="n">
+      <c r="AR14" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP14" t="n">
-        <v>38947.6</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR14" t="n">
+      <c r="AS14" t="n">
+        <v>43879.64947025001</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>393899.6</v>
+      </c>
+      <c r="AU14" t="n">
         <v>113281.3283504975</v>
       </c>
-      <c r="AS14" t="n">
-        <v>881192.1658197475</v>
+      <c r="AV14" t="n">
+        <v>1173222.802974525</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>2453246.618264522</v>
       </c>
     </row>
     <row r="15">
@@ -8639,7 +8783,7 @@
         <v>6</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L15" t="n">
         <v>113</v>
@@ -8666,31 +8810,31 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>477655.801028</v>
+        <v>1497399.590818852</v>
       </c>
       <c r="U15" t="n">
-        <v>77046.2383936</v>
+        <v>224858.349909472</v>
       </c>
       <c r="V15" t="n">
-        <v>51566.31111918</v>
+        <v>165276.8168855568</v>
       </c>
       <c r="W15" t="n">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="X15" t="n">
-        <v>1440</v>
+        <v>1540</v>
       </c>
       <c r="Y15" t="n">
         <v>15000</v>
       </c>
       <c r="Z15" t="n">
-        <v>1440</v>
+        <v>1540</v>
       </c>
       <c r="AA15" t="n">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="AB15" t="n">
-        <v>1470</v>
+        <v>1870</v>
       </c>
       <c r="AC15" t="n">
         <v>0</v>
@@ -8711,7 +8855,7 @@
         <v>6</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
@@ -8724,28 +8868,40 @@
         </is>
       </c>
       <c r="AL15" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM15" t="inlineStr"/>
+      <c r="AN15" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO15" t="n">
         <v>757869.84967</v>
       </c>
-      <c r="AM15" t="n">
+      <c r="AP15" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN15" t="n">
+      <c r="AQ15" t="n">
         <v>160726.84108326</v>
       </c>
-      <c r="AO15" t="n">
+      <c r="AR15" t="n">
         <v>33220.2</v>
       </c>
-      <c r="AP15" t="n">
-        <v>111712</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR15" t="n">
+      <c r="AS15" t="n">
+        <v>126852.8969934</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>720704.4</v>
+      </c>
+      <c r="AU15" t="n">
         <v>142262.544125865</v>
       </c>
-      <c r="AS15" t="n">
-        <v>1320098.634879125</v>
+      <c r="AV15" t="n">
+        <v>1958837.470413635</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>4014781.40228616</v>
       </c>
     </row>
     <row r="16">
@@ -8782,7 +8938,7 @@
         <v>7</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L16" t="n">
         <v>113</v>
@@ -8809,31 +8965,31 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>486436.4317752</v>
+        <v>1534752.134056361</v>
       </c>
       <c r="U16" t="n">
-        <v>78386.18882879999</v>
+        <v>230457.8239312128</v>
       </c>
       <c r="V16" t="n">
-        <v>52555.23123198</v>
+        <v>169367.8098719428</v>
       </c>
       <c r="W16" t="n">
-        <v>3780</v>
+        <v>3980</v>
       </c>
       <c r="X16" t="n">
-        <v>1440</v>
+        <v>1640</v>
       </c>
       <c r="Y16" t="n">
         <v>15000</v>
       </c>
       <c r="Z16" t="n">
-        <v>1440</v>
+        <v>1640</v>
       </c>
       <c r="AA16" t="n">
-        <v>2460</v>
+        <v>2660</v>
       </c>
       <c r="AB16" t="n">
-        <v>1470</v>
+        <v>2270</v>
       </c>
       <c r="AC16" t="n">
         <v>0</v>
@@ -8854,7 +9010,7 @@
         <v>7</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
@@ -8867,28 +9023,40 @@
         </is>
       </c>
       <c r="AL16" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM16" t="inlineStr"/>
+      <c r="AN16" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO16" t="n">
         <v>757869.84967</v>
       </c>
-      <c r="AM16" t="n">
+      <c r="AP16" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN16" t="n">
+      <c r="AQ16" t="n">
         <v>160726.84108326</v>
       </c>
-      <c r="AO16" t="n">
+      <c r="AR16" t="n">
         <v>33220.2</v>
       </c>
-      <c r="AP16" t="n">
-        <v>111895</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR16" t="n">
+      <c r="AS16" t="n">
+        <v>127035.8969934</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>720704.4</v>
+      </c>
+      <c r="AU16" t="n">
         <v>165975.123524545</v>
       </c>
-      <c r="AS16" t="n">
-        <v>1343994.214277805</v>
+      <c r="AV16" t="n">
+        <v>2035837.014674196</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>4115676.525945401</v>
       </c>
     </row>
     <row r="17">
@@ -8925,7 +9093,7 @@
         <v>8</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L17" t="n">
         <v>113</v>
@@ -8952,31 +9120,31 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>1147428.85010025</v>
+        <v>2788673.974906893</v>
       </c>
       <c r="U17" t="n">
-        <v>184535.3933272</v>
+        <v>415131.9002945664</v>
       </c>
       <c r="V17" t="n">
-        <v>144823.43414</v>
+        <v>329517.2325660801</v>
       </c>
       <c r="W17" t="n">
-        <v>4100</v>
+        <v>4300</v>
       </c>
       <c r="X17" t="n">
-        <v>1440</v>
+        <v>1640</v>
       </c>
       <c r="Y17" t="n">
         <v>15000</v>
       </c>
       <c r="Z17" t="n">
-        <v>1440</v>
+        <v>1640</v>
       </c>
       <c r="AA17" t="n">
-        <v>2700</v>
+        <v>2900</v>
       </c>
       <c r="AB17" t="n">
-        <v>1470</v>
+        <v>2270</v>
       </c>
       <c r="AC17" t="n">
         <v>0</v>
@@ -8997,7 +9165,7 @@
         <v>8</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
@@ -9010,28 +9178,40 @@
         </is>
       </c>
       <c r="AL17" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM17" t="inlineStr"/>
+      <c r="AN17" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO17" t="n">
         <v>1729209.34434</v>
       </c>
-      <c r="AM17" t="n">
+      <c r="AP17" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN17" t="n">
+      <c r="AQ17" t="n">
         <v>363898.36668372</v>
       </c>
-      <c r="AO17" t="n">
+      <c r="AR17" t="n">
         <v>155697.55</v>
       </c>
-      <c r="AP17" t="n">
-        <v>685692</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR17" t="n">
+      <c r="AS17" t="n">
+        <v>754827.3737736</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>1151520.25</v>
+      </c>
+      <c r="AU17" t="n">
         <v>219885.84933921</v>
       </c>
-      <c r="AS17" t="n">
-        <v>3268690.31036293</v>
+      <c r="AV17" t="n">
+        <v>3076094.740057832</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>7565440.674194361</v>
       </c>
     </row>
     <row r="18">
@@ -9068,7 +9248,7 @@
         <v>10</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L18" t="n">
         <v>113</v>
@@ -9095,31 +9275,31 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>5717685.263314799</v>
+        <v>9907994.096569235</v>
       </c>
       <c r="U18" t="n">
-        <v>917373.9839504</v>
+        <v>1453766.375592419</v>
       </c>
       <c r="V18" t="n">
-        <v>676320.8682084801</v>
+        <v>1098194.485089849</v>
       </c>
       <c r="W18" t="n">
-        <v>4740</v>
+        <v>4940</v>
       </c>
       <c r="X18" t="n">
-        <v>1440</v>
+        <v>1640</v>
       </c>
       <c r="Y18" t="n">
         <v>15000</v>
       </c>
       <c r="Z18" t="n">
-        <v>1440</v>
+        <v>1640</v>
       </c>
       <c r="AA18" t="n">
-        <v>3180</v>
+        <v>3380</v>
       </c>
       <c r="AB18" t="n">
-        <v>1470</v>
+        <v>2270</v>
       </c>
       <c r="AC18" t="n">
         <v>0</v>
@@ -9140,7 +9320,7 @@
         <v>10</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
@@ -9153,28 +9333,40 @@
         </is>
       </c>
       <c r="AL18" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM18" t="inlineStr"/>
+      <c r="AN18" t="inlineStr">
+        <is>
+          <t>1,1,3000;2,1,3000;3,1,3000;4,1,3000;1,2,3000;2,2,3000;3,2,3000;4,2,3000;5,1,3000;5,2,3000</t>
+        </is>
+      </c>
+      <c r="AO18" t="n">
         <v>10555265.13392</v>
       </c>
-      <c r="AM18" t="n">
+      <c r="AP18" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN18" t="n">
+      <c r="AQ18" t="n">
         <v>2218897.66742976</v>
       </c>
-      <c r="AO18" t="n">
+      <c r="AR18" t="n">
         <v>481003.7</v>
       </c>
-      <c r="AP18" t="n">
-        <v>2007622</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR18" t="n">
+      <c r="AS18" t="n">
+        <v>2851977.2107136</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>1688707.1</v>
+      </c>
+      <c r="AU18" t="n">
         <v>576011.54342156</v>
       </c>
-      <c r="AS18" t="n">
-        <v>15953107.24477132</v>
+      <c r="AV18" t="n">
+        <v>7786527.321938636</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>26272696.87742355</v>
       </c>
     </row>
     <row r="19">
@@ -9211,7 +9403,7 @@
         <v>10</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L19" t="n">
         <v>113</v>
@@ -9238,31 +9430,31 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>9305258.358502401</v>
+        <v>16938748.47396988</v>
       </c>
       <c r="U19" t="n">
-        <v>1493977.1266576</v>
+        <v>2594167.535478118</v>
       </c>
       <c r="V19" t="n">
-        <v>1099728.83320368</v>
+        <v>1962900.873832197</v>
       </c>
       <c r="W19" t="n">
-        <v>5780</v>
+        <v>5980</v>
       </c>
       <c r="X19" t="n">
-        <v>1440</v>
+        <v>1640</v>
       </c>
       <c r="Y19" t="n">
         <v>15000</v>
       </c>
       <c r="Z19" t="n">
-        <v>1440</v>
+        <v>1640</v>
       </c>
       <c r="AA19" t="n">
-        <v>3960</v>
+        <v>4160</v>
       </c>
       <c r="AB19" t="n">
-        <v>1470</v>
+        <v>2270</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
@@ -9283,7 +9475,7 @@
         <v>10</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
@@ -9296,28 +9488,40 @@
         </is>
       </c>
       <c r="AL19" t="n">
+        <v>150</v>
+      </c>
+      <c r="AM19" t="inlineStr"/>
+      <c r="AN19" t="inlineStr">
+        <is>
+          <t>1,1,5000;2,1,5000;3,1,5000;4,1,5000;1,2,5000;2,2,5000;3,2,5000;4,2,5000;5,1,5000;5,2,5000</t>
+        </is>
+      </c>
+      <c r="AO19" t="n">
         <v>17132258.82908</v>
       </c>
-      <c r="AM19" t="n">
+      <c r="AP19" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN19" t="n">
+      <c r="AQ19" t="n">
         <v>3601395.45085944</v>
       </c>
-      <c r="AO19" t="n">
+      <c r="AR19" t="n">
         <v>1061573.2</v>
       </c>
-      <c r="AP19" t="n">
-        <v>3470670.6</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR19" t="n">
+      <c r="AS19" t="n">
+        <v>6040385.674362</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>1688707.1</v>
+      </c>
+      <c r="AU19" t="n">
         <v>576011.54342156</v>
       </c>
-      <c r="AS19" t="n">
-        <v>25956216.823361</v>
+      <c r="AV19" t="n">
+        <v>15932020.99558103</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>46146659.99330403</v>
       </c>
     </row>
     <row r="20">
@@ -9354,7 +9558,7 @@
         <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L20" t="n">
         <v>113</v>
@@ -9381,13 +9585,13 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>226900.3401241</v>
+        <v>233899.3401241</v>
       </c>
       <c r="U20" t="n">
-        <v>38820.52453295001</v>
+        <v>39886.52453295001</v>
       </c>
       <c r="V20" t="n">
-        <v>20993.45341632</v>
+        <v>21804.45341632</v>
       </c>
       <c r="W20" t="n">
         <v>1380</v>
@@ -9426,7 +9630,7 @@
         <v>1</v>
       </c>
       <c r="AI20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
@@ -9439,28 +9643,36 @@
         </is>
       </c>
       <c r="AL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM20" t="inlineStr"/>
+      <c r="AN20" t="inlineStr"/>
+      <c r="AO20" t="n">
         <v>524346.90117</v>
       </c>
-      <c r="AM20" t="n">
+      <c r="AP20" t="n">
         <v>32682</v>
       </c>
-      <c r="AN20" t="n">
+      <c r="AQ20" t="n">
         <v>3596.640886560001</v>
       </c>
-      <c r="AO20" t="n">
+      <c r="AR20" t="n">
         <v>14696.9</v>
       </c>
-      <c r="AP20" t="n">
+      <c r="AS20" t="n">
         <v>32982.8</v>
       </c>
-      <c r="AQ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR20" t="n">
+      <c r="AT20" t="n">
+        <v>19017.65</v>
+      </c>
+      <c r="AU20" t="n">
         <v>12287.074488735</v>
       </c>
-      <c r="AS20" t="n">
-        <v>620592.3165452951</v>
+      <c r="AV20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>639609.9665452952</v>
       </c>
     </row>
     <row r="21">
@@ -9497,7 +9709,7 @@
         <v>2</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L21" t="n">
         <v>113</v>
@@ -9524,13 +9736,13 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>297733.0917228</v>
+        <v>312171.0599588</v>
       </c>
       <c r="U21" t="n">
-        <v>49687.502821</v>
+        <v>51913.247139</v>
       </c>
       <c r="V21" t="n">
-        <v>29295.15284304</v>
+        <v>30929.27701904</v>
       </c>
       <c r="W21" t="n">
         <v>1860</v>
@@ -9569,7 +9781,7 @@
         <v>2</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
@@ -9582,28 +9794,36 @@
         </is>
       </c>
       <c r="AL21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM21" t="inlineStr"/>
+      <c r="AN21" t="inlineStr"/>
+      <c r="AO21" t="n">
         <v>619491.8042199999</v>
       </c>
-      <c r="AM21" t="n">
+      <c r="AP21" t="n">
         <v>49023</v>
       </c>
-      <c r="AN21" t="n">
+      <c r="AQ21" t="n">
         <v>46958.12782576001</v>
       </c>
-      <c r="AO21" t="n">
+      <c r="AR21" t="n">
         <v>19028.1</v>
       </c>
-      <c r="AP21" t="n">
-        <v>65965.60000000001</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR21" t="n">
+      <c r="AS21" t="n">
+        <v>72152.2680422</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>33005.15</v>
+      </c>
+      <c r="AU21" t="n">
         <v>16350.85798942</v>
       </c>
-      <c r="AS21" t="n">
-        <v>816817.49003518</v>
+      <c r="AV21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>856009.3080773801</v>
       </c>
     </row>
     <row r="22">
@@ -9640,7 +9860,7 @@
         <v>5</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L22" t="n">
         <v>113</v>
@@ -9667,31 +9887,31 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>419194.9702523</v>
+        <v>549322.7497596961</v>
       </c>
       <c r="U22" t="n">
-        <v>68206.77012484999</v>
+        <v>86570.35325742984</v>
       </c>
       <c r="V22" t="n">
-        <v>43957.38939426</v>
+        <v>58096.13142665385</v>
       </c>
       <c r="W22" t="n">
-        <v>3620</v>
+        <v>3670</v>
       </c>
       <c r="X22" t="n">
-        <v>1440</v>
+        <v>1490</v>
       </c>
       <c r="Y22" t="n">
         <v>15000</v>
       </c>
       <c r="Z22" t="n">
-        <v>1440</v>
+        <v>1490</v>
       </c>
       <c r="AA22" t="n">
-        <v>2340</v>
+        <v>2390</v>
       </c>
       <c r="AB22" t="n">
-        <v>1220</v>
+        <v>1420</v>
       </c>
       <c r="AC22" t="n">
         <v>0</v>
@@ -9712,7 +9932,7 @@
         <v>5</v>
       </c>
       <c r="AI22" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
@@ -9725,28 +9945,40 @@
         </is>
       </c>
       <c r="AL22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM22" t="inlineStr"/>
+      <c r="AN22" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO22" t="n">
         <v>780381.410305</v>
       </c>
-      <c r="AM22" t="n">
+      <c r="AP22" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN22" t="n">
+      <c r="AQ22" t="n">
         <v>112105.70574329</v>
       </c>
-      <c r="AO22" t="n">
+      <c r="AR22" t="n">
         <v>23382.7</v>
       </c>
-      <c r="AP22" t="n">
-        <v>95470.39999999999</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR22" t="n">
+      <c r="AS22" t="n">
+        <v>103265.96410305</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>44580.75</v>
+      </c>
+      <c r="AU22" t="n">
         <v>30626.25708247</v>
       </c>
-      <c r="AS22" t="n">
-        <v>1156273.67313076</v>
+      <c r="AV22" t="n">
+        <v>286357.9557054116</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>1495007.942939222</v>
       </c>
     </row>
     <row r="23">
@@ -9783,7 +10015,7 @@
         <v>7</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L23" t="n">
         <v>113</v>
@@ -9810,31 +10042,31 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>485689.8528953</v>
+        <v>708948.7932795258</v>
       </c>
       <c r="U23" t="n">
-        <v>81251.492554</v>
+        <v>116350.852974534</v>
       </c>
       <c r="V23" t="n">
-        <v>53153.40572296</v>
+        <v>77754.40999615728</v>
       </c>
       <c r="W23" t="n">
-        <v>3780</v>
+        <v>3980</v>
       </c>
       <c r="X23" t="n">
-        <v>1440</v>
+        <v>1640</v>
       </c>
       <c r="Y23" t="n">
         <v>15000</v>
       </c>
       <c r="Z23" t="n">
-        <v>1440</v>
+        <v>1640</v>
       </c>
       <c r="AA23" t="n">
-        <v>2460</v>
+        <v>2660</v>
       </c>
       <c r="AB23" t="n">
-        <v>1470</v>
+        <v>2270</v>
       </c>
       <c r="AC23" t="n">
         <v>0</v>
@@ -9855,7 +10087,7 @@
         <v>7</v>
       </c>
       <c r="AI23" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
@@ -9868,28 +10100,40 @@
         </is>
       </c>
       <c r="AL23" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM23" t="inlineStr"/>
+      <c r="AN23" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO23" t="n">
         <v>850857.288335</v>
       </c>
-      <c r="AM23" t="n">
+      <c r="AP23" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN23" t="n">
+      <c r="AQ23" t="n">
         <v>180195.12701703</v>
       </c>
-      <c r="AO23" t="n">
+      <c r="AR23" t="n">
         <v>30363.65</v>
       </c>
-      <c r="AP23" t="n">
-        <v>150324</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR23" t="n">
+      <c r="AS23" t="n">
+        <v>167324.6457667</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>81566.10000000001</v>
+      </c>
+      <c r="AU23" t="n">
         <v>40410.46907289</v>
       </c>
-      <c r="AS23" t="n">
-        <v>1366457.73442492</v>
+      <c r="AV23" t="n">
+        <v>510733.5560900947</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>1975758.036281715</v>
       </c>
     </row>
     <row r="24">
@@ -9926,7 +10170,7 @@
         <v>8</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L24" t="n">
         <v>113</v>
@@ -9953,31 +10197,31 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>561088.97118</v>
+        <v>892188.55049228</v>
       </c>
       <c r="U24" t="n">
-        <v>97691.8077792</v>
+        <v>150143.9922148704</v>
       </c>
       <c r="V24" t="n">
-        <v>65650.21943427001</v>
+        <v>103048.8134568174</v>
       </c>
       <c r="W24" t="n">
-        <v>4100</v>
+        <v>4300</v>
       </c>
       <c r="X24" t="n">
-        <v>1440</v>
+        <v>1640</v>
       </c>
       <c r="Y24" t="n">
         <v>15000</v>
       </c>
       <c r="Z24" t="n">
-        <v>1440</v>
+        <v>1640</v>
       </c>
       <c r="AA24" t="n">
-        <v>2700</v>
+        <v>2900</v>
       </c>
       <c r="AB24" t="n">
-        <v>1470</v>
+        <v>2270</v>
       </c>
       <c r="AC24" t="n">
         <v>0</v>
@@ -9998,7 +10242,7 @@
         <v>8</v>
       </c>
       <c r="AI24" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ24" t="inlineStr">
         <is>
@@ -10011,28 +10255,40 @@
         </is>
       </c>
       <c r="AL24" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM24" t="inlineStr"/>
+      <c r="AN24" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO24" t="n">
         <v>962448.050455</v>
       </c>
-      <c r="AM24" t="n">
+      <c r="AP24" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN24" t="n">
+      <c r="AQ24" t="n">
         <v>203474.00068239</v>
       </c>
-      <c r="AO24" t="n">
+      <c r="AR24" t="n">
         <v>43173.05</v>
       </c>
-      <c r="AP24" t="n">
-        <v>255711.2</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR24" t="n">
+      <c r="AS24" t="n">
+        <v>294176.1220182</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>130328.7</v>
+      </c>
+      <c r="AU24" t="n">
         <v>48770.2054661425</v>
       </c>
-      <c r="AS24" t="n">
-        <v>1627883.706603533</v>
+      <c r="AV24" t="n">
+        <v>741667.9455298535</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>2538345.274151586</v>
       </c>
     </row>
     <row r="25">
@@ -10069,7 +10325,7 @@
         <v>10</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L25" t="n">
         <v>113</v>
@@ -10096,31 +10352,31 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>715584.2407245999</v>
+        <v>1525371.067819709</v>
       </c>
       <c r="U25" t="n">
-        <v>131593.3274448</v>
+        <v>255519.0024449808</v>
       </c>
       <c r="V25" t="n">
-        <v>91186.55938544001</v>
+        <v>181883.3360290939</v>
       </c>
       <c r="W25" t="n">
-        <v>4740</v>
+        <v>4940</v>
       </c>
       <c r="X25" t="n">
-        <v>1440</v>
+        <v>1640</v>
       </c>
       <c r="Y25" t="n">
         <v>15000</v>
       </c>
       <c r="Z25" t="n">
-        <v>1440</v>
+        <v>1640</v>
       </c>
       <c r="AA25" t="n">
-        <v>3180</v>
+        <v>3380</v>
       </c>
       <c r="AB25" t="n">
-        <v>1470</v>
+        <v>2270</v>
       </c>
       <c r="AC25" t="n">
         <v>0</v>
@@ -10141,7 +10397,7 @@
         <v>10</v>
       </c>
       <c r="AI25" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ25" t="inlineStr">
         <is>
@@ -10154,28 +10410,40 @@
         </is>
       </c>
       <c r="AL25" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM25" t="inlineStr"/>
+      <c r="AN25" t="inlineStr">
+        <is>
+          <t>1,1,3000;2,1,3000;3,1,3000;4,1,3000;1,2,3000;2,2,3000;3,2,3000;4,2,3000;5,1,3000;5,2,3000</t>
+        </is>
+      </c>
+      <c r="AO25" t="n">
         <v>1195418.77844</v>
       </c>
-      <c r="AM25" t="n">
+      <c r="AP25" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN25" t="n">
+      <c r="AQ25" t="n">
         <v>252163.65010152</v>
       </c>
-      <c r="AO25" t="n">
+      <c r="AR25" t="n">
         <v>68760.45</v>
       </c>
-      <c r="AP25" t="n">
-        <v>466485.6</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR25" t="n">
+      <c r="AS25" t="n">
+        <v>562053.1022752</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>191126.55</v>
+      </c>
+      <c r="AU25" t="n">
         <v>67461.73801848</v>
       </c>
-      <c r="AS25" t="n">
-        <v>2164597.41656</v>
+      <c r="AV25" t="n">
+        <v>1902086.398022166</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>4353377.866857367</v>
       </c>
     </row>
   </sheetData>
